--- a/trunk/documentation/draft/scm/scm-user-list.xlsx
+++ b/trunk/documentation/draft/scm/scm-user-list.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="repository" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,58 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>documents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repository 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repository 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>everyone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read / Wrtite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,46 +61,6 @@
   </si>
   <si>
     <t>Telephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/branches</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/tag</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/trunk</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/sources/</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/sources/branches</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/sources/tag</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/sources/trunk</t>
-  </si>
-  <si>
-    <t>Project Root 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snapshot 관리 (변경 없음, 삭제 금지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신 작업 파일을 관리 (완성 전까지 지속적으로 변경)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Branche 관리 (병합 후, 삭제 허용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,7 +138,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -244,85 +198,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -368,54 +249,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -425,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,25 +271,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,34 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -799,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,43 +626,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
@@ -861,7 +673,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="6"/>
@@ -870,7 +682,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="6"/>
@@ -879,7 +691,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
@@ -888,7 +700,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6"/>
@@ -897,7 +709,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="8"/>
@@ -908,7 +720,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
@@ -917,7 +729,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
@@ -926,7 +738,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
@@ -935,7 +747,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="8"/>
@@ -946,7 +758,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="6"/>
@@ -955,7 +767,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
@@ -964,7 +776,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="6"/>
@@ -973,7 +785,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="6"/>
@@ -993,251 +805,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://76.2.20.51/svn/documents/"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://76.2.20.51/svn/documents/branches"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://76.2.20.51/svn/documents/tag"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://76.2.20.51/svn/documents/trunk"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://76.2.20.51/svn/documents/"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://76.2.20.51/svn/documents/branches"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://76.2.20.51/svn/documents/tag"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://76.2.20.51/svn/documents/trunk"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/documentation/draft/scm/scm-user-list.xlsx
+++ b/trunk/documentation/draft/scm/scm-user-list.xlsx
@@ -1,16 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="12330"/>
+    <workbookView xWindow="3705" yWindow="2355" windowWidth="18315" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bomber</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bomber:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>접수용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이메일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bomber:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PJT </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연락</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이메일</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20,31 +269,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>technical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCM Account Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,12 +292,35 @@
     <t>Telephone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Code 
+Author Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM 
+Account Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Team
+User Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +345,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -109,12 +381,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -213,37 +485,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -258,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,44 +555,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,201 +898,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="10" t="s">
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>